--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT_K20\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4951f0d6c4070b2d/Desktop/Final-Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DD1A5C-41BB-4E24-A345-220C318340E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{80DD1A5C-41BB-4E24-A345-220C318340E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96BE9EC-8300-4EA8-A802-4E9BFFDE6AFB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Viết đặc tả thiết kế cho website</t>
   </si>
   <si>
-    <t>Thiết kế usecase diagram</t>
-  </si>
-  <si>
     <t>Thiết kế mô hình cơ sở dữ liệu</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>Thiết kế giao diện</t>
-  </si>
-  <si>
-    <t>Trang chủ</t>
   </si>
   <si>
     <t>Trang thành viên</t>
@@ -148,20 +142,38 @@
     <t>ĐỀ TÀI: XÂY DỰNG WEBSITE ….</t>
   </si>
   <si>
-    <t>Lê Thị B</t>
+    <t>Mục tiêu:</t>
+  </si>
+  <si>
+    <t>Trương Thuận Hòa</t>
+  </si>
+  <si>
+    <t>Phan Hồng Sơn</t>
   </si>
   <si>
     <t>Tìm hiểu các chức năng cần thiết của một
- website bán …</t>
-  </si>
-  <si>
-    <t>Mục tiêu:</t>
-  </si>
-  <si>
-    <t>Trương Thuận Hòa</t>
-  </si>
-  <si>
-    <t>Tìm hiểu Java Spring, CSS, HTML, Bootstrap</t>
+ website thương mại điện tử</t>
+  </si>
+  <si>
+    <t>Tìm hiểu các công nghệ làm giao diện</t>
+  </si>
+  <si>
+    <t>Tìm hiểu HTML, CSS, Bootsrap</t>
+  </si>
+  <si>
+    <t>Tìm template website E-commerce</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>Thiết kế use case diagram</t>
+  </si>
+  <si>
+    <t>Tìm hiểu Java, JSP/Servlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trang chủ </t>
   </si>
 </sst>
 </file>
@@ -171,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,20 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -213,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +271,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,14 +487,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A7:J31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A7:J31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A7:J33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A7:J33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Công việc" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Chi tiết công việc" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Trương Thuận Hòa" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lê Thị B" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Phan Hồng Sơn" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày bắt đầu dự kiến" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ngày kết thúc dự kiến" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu thực tế" dataDxfId="2"/>
@@ -770,83 +802,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="5" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -859,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>40</v>
@@ -890,463 +922,565 @@
       <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="9">
-        <v>44088</v>
+        <v>44820</v>
       </c>
       <c r="G8" s="9">
-        <v>44090</v>
-      </c>
-      <c r="H8" s="9">
-        <v>44074</v>
-      </c>
-      <c r="I8" s="9">
-        <v>44075</v>
-      </c>
+        <v>44822</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="9">
-        <v>44091</v>
+        <v>44823</v>
       </c>
       <c r="G9" s="9">
-        <v>44093</v>
+        <v>44826</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="9">
-        <v>44094</v>
+        <v>44827</v>
       </c>
       <c r="G10" s="9">
-        <v>44097</v>
+        <v>44828</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F11" s="9">
-        <v>44098</v>
+        <v>44829</v>
       </c>
       <c r="G11" s="9">
-        <v>44099</v>
+        <v>44831</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="13"/>
       <c r="F12" s="9">
-        <v>44100</v>
+        <v>44832</v>
       </c>
       <c r="G12" s="9">
-        <v>44103</v>
+        <v>44834</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="9">
-        <v>44104</v>
+        <v>44835</v>
       </c>
       <c r="G13" s="9">
-        <v>44106</v>
+        <v>44837</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" s="9">
-        <v>44107</v>
+        <v>44838</v>
       </c>
       <c r="G14" s="9">
-        <v>44109</v>
+        <v>44839</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="9">
-        <v>44110</v>
+        <v>44840</v>
       </c>
       <c r="G15" s="9">
-        <v>44113</v>
+        <v>44845</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" s="9">
-        <v>44114</v>
+        <v>44846</v>
       </c>
       <c r="G16" s="9">
-        <v>44117</v>
+        <v>44849</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="9">
-        <v>44118</v>
+        <v>44850</v>
       </c>
       <c r="G17" s="9">
-        <v>44120</v>
+        <v>44852</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F18" s="9">
-        <v>44121</v>
+        <v>44853</v>
       </c>
       <c r="G18" s="9">
-        <v>44123</v>
+        <v>44855</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="9">
-        <v>44124</v>
+        <v>44856</v>
       </c>
       <c r="G19" s="9">
-        <v>44126</v>
+        <v>44858</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="9">
-        <v>44127</v>
+        <v>44859</v>
       </c>
       <c r="G20" s="9">
-        <v>44129</v>
+        <v>44860</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="9">
-        <v>44130</v>
+        <v>44861</v>
       </c>
       <c r="G21" s="9">
-        <v>44134</v>
+        <v>44862</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="9">
-        <v>44135</v>
+        <v>44863</v>
       </c>
       <c r="G22" s="9">
-        <v>44138</v>
+        <v>44865</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="9">
-        <v>44139</v>
+        <v>44866</v>
       </c>
       <c r="G23" s="9">
-        <v>44142</v>
+        <v>44868</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F24" s="9">
-        <v>44143</v>
+        <v>44869</v>
       </c>
       <c r="G24" s="9">
-        <v>44145</v>
+        <v>44872</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="9">
-        <v>44146</v>
+        <v>44873</v>
       </c>
       <c r="G25" s="9">
-        <v>44150</v>
+        <v>44874</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="9">
-        <v>44151</v>
+        <v>44875</v>
       </c>
       <c r="G26" s="9">
-        <v>44156</v>
+        <v>44876</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="9">
-        <v>44157</v>
+        <v>44877</v>
       </c>
       <c r="G27" s="9">
-        <v>44161</v>
+        <v>44879</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="9">
-        <v>44162</v>
+        <v>44880</v>
       </c>
       <c r="G28" s="9">
-        <v>44166</v>
+        <v>44882</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>7</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F29" s="9">
-        <v>44167</v>
+        <v>44883</v>
       </c>
       <c r="G29" s="9">
-        <v>44175</v>
+        <v>44884</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>8</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>35</v>
-      </c>
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F30" s="9">
-        <v>44176</v>
+        <v>44885</v>
       </c>
       <c r="G30" s="9">
-        <v>44181</v>
+        <v>44885</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F31" s="9">
-        <v>44182</v>
+        <v>44886</v>
       </c>
       <c r="G31" s="9">
-        <v>44190</v>
+        <v>44887</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="9">
+        <v>44888</v>
+      </c>
+      <c r="G32" s="9">
+        <v>44891</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9">
+        <v>44892</v>
+      </c>
+      <c r="G33" s="9">
+        <v>44898</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1356,8 +1490,9 @@
     <mergeCell ref="C5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4951f0d6c4070b2d/Desktop/Final-Project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT_K20\Project1\Final_Project\Final-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{80DD1A5C-41BB-4E24-A345-220C318340E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96BE9EC-8300-4EA8-A802-4E9BFFDE6AFB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDDCDD6-F295-4E1D-A938-005D5DD80605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Thiết kế giao diện</t>
-  </si>
-  <si>
-    <t>Trang thành viên</t>
   </si>
   <si>
     <t>Xây dựng chức năng cho website</t>
@@ -94,33 +91,12 @@
     <t>Trang sản phẩm</t>
   </si>
   <si>
-    <t>Xem danh mục sản phẩm</t>
-  </si>
-  <si>
-    <t>Xem chi tiết thông tin sản phẩm</t>
-  </si>
-  <si>
     <t>Đăng nhập, đăng ký thành viên</t>
   </si>
   <si>
-    <t>Trang thành viên (admin, khách hàng)</t>
-  </si>
-  <si>
-    <t>Phân quyền (admin, khách hàng)</t>
-  </si>
-  <si>
-    <t>Quản lý thông tin cá nhân</t>
-  </si>
-  <si>
     <t>Mua hàng</t>
   </si>
   <si>
-    <t>Xử lý đơn hàng</t>
-  </si>
-  <si>
-    <t>Xác thực tài khoản thông qua gmail</t>
-  </si>
-  <si>
     <t>Gửi hóa đơn đặt hàng về gmail cho khách hàng</t>
   </si>
   <si>
@@ -139,9 +115,6 @@
     <t>Trang liên hệ (tên cửa hàng, địa chỉ, số điện thoại, google maps)</t>
   </si>
   <si>
-    <t>ĐỀ TÀI: XÂY DỰNG WEBSITE ….</t>
-  </si>
-  <si>
     <t>Mục tiêu:</t>
   </si>
   <si>
@@ -151,16 +124,9 @@
     <t>Phan Hồng Sơn</t>
   </si>
   <si>
-    <t>Tìm hiểu các chức năng cần thiết của một
- website thương mại điện tử</t>
-  </si>
-  <si>
     <t>Tìm hiểu các công nghệ làm giao diện</t>
   </si>
   <si>
-    <t>Tìm hiểu HTML, CSS, Bootsrap</t>
-  </si>
-  <si>
     <t>Tìm template website E-commerce</t>
   </si>
   <si>
@@ -170,10 +136,34 @@
     <t>Thiết kế use case diagram</t>
   </si>
   <si>
-    <t>Tìm hiểu Java, JSP/Servlet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trang chủ </t>
+  </si>
+  <si>
+    <t>Tham khảo website các trang thương mại điện tử lớn (Lazada, Shopee, Tiki, …)</t>
+  </si>
+  <si>
+    <t>Tìm hiểu HTML, CSS, Bootsrap, JSP, JSTL, EL</t>
+  </si>
+  <si>
+    <t>Tìm hiểu Java, JSP/Servlet, Hibernate</t>
+  </si>
+  <si>
+    <t>Xây dựng thanh catalog</t>
+  </si>
+  <si>
+    <t>Thêm chức năng email tự động</t>
+  </si>
+  <si>
+    <t>ĐỀ TÀI: XÂY DỰNG WEBSITE SUPERMARKET</t>
+  </si>
+  <si>
+    <t>Một website cho phép người dùng có thể mua các đồ gia dụng, đồ ăn như một tiệm tạp hóa online</t>
+  </si>
+  <si>
+    <t>Xử lý giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thiết kế database</t>
   </si>
 </sst>
 </file>
@@ -183,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +208,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +279,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,8 +300,10 @@
         <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="dd/mm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -313,8 +316,10 @@
         <sz val="13"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="dd/mm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -487,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A7:J33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A7:J33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A7:J29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A7:J29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Công việc" dataDxfId="8"/>
@@ -497,9 +502,9 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Phan Hồng Sơn" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày bắt đầu dự kiến" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ngày kết thúc dự kiến" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu thực tế" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc thực tế" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ghi chú" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu thực tế" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc thực tế" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ghi chú" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +859,7 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -869,9 +874,11 @@
     <row r="5" spans="1:10" s="11" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -891,10 +898,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>3</v>
@@ -920,22 +927,26 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F8" s="9">
-        <v>44820</v>
+        <v>44822</v>
       </c>
       <c r="G8" s="9">
-        <v>44822</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+        <v>44824</v>
+      </c>
+      <c r="H8" s="9">
+        <v>44823</v>
+      </c>
+      <c r="I8" s="9">
+        <v>44826</v>
+      </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -943,25 +954,29 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F9" s="9">
-        <v>44823</v>
+        <v>44825</v>
       </c>
       <c r="G9" s="9">
-        <v>44826</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+        <v>44827</v>
+      </c>
+      <c r="H9" s="9">
+        <v>44828</v>
+      </c>
+      <c r="I9" s="9">
+        <v>44830</v>
+      </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -970,20 +985,24 @@
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F10" s="9">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="G10" s="9">
+        <v>44829</v>
+      </c>
+      <c r="H10" s="9">
         <v>44828</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>44830</v>
+      </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -992,20 +1011,24 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="9">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="G11" s="9">
-        <v>44831</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+        <v>44833</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44832</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44839</v>
+      </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -1014,18 +1037,22 @@
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="9">
+        <v>44834</v>
+      </c>
+      <c r="G12" s="9">
+        <v>44836</v>
+      </c>
+      <c r="H12" s="9">
         <v>44832</v>
       </c>
-      <c r="G12" s="9">
-        <v>44834</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9">
+        <v>44839</v>
+      </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
@@ -1035,113 +1062,133 @@
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="9">
-        <v>44835</v>
+        <v>44837</v>
       </c>
       <c r="G13" s="9">
-        <v>44837</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+        <v>44839</v>
+      </c>
+      <c r="H13" s="9">
+        <v>44832</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44839</v>
+      </c>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F14" s="9">
-        <v>44838</v>
+        <v>44841</v>
       </c>
       <c r="G14" s="9">
-        <v>44839</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="5"/>
+        <v>44845</v>
+      </c>
+      <c r="H14" s="9">
+        <v>44840</v>
+      </c>
+      <c r="I14" s="9">
+        <v>44844</v>
+      </c>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9">
-        <v>44840</v>
+        <v>44847</v>
       </c>
       <c r="G15" s="9">
-        <v>44845</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+        <v>44849</v>
+      </c>
+      <c r="H15" s="9">
+        <v>44876</v>
+      </c>
+      <c r="I15" s="9">
+        <v>44876</v>
+      </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="9">
+        <v>44851</v>
+      </c>
+      <c r="G16" s="9">
+        <v>44862</v>
+      </c>
+      <c r="H16" s="9">
+        <v>44850</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44860</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9">
-        <v>44846</v>
-      </c>
-      <c r="G16" s="9">
-        <v>44849</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F17" s="9">
-        <v>44850</v>
+        <v>44863</v>
       </c>
       <c r="G17" s="9">
-        <v>44852</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+        <v>44864</v>
+      </c>
+      <c r="H17" s="9">
+        <v>44863</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44864</v>
+      </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1149,338 +1196,304 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F18" s="9">
-        <v>44853</v>
+        <v>44865</v>
       </c>
       <c r="G18" s="9">
-        <v>44855</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+        <v>44866</v>
+      </c>
+      <c r="H18" s="9">
+        <v>44865</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44867</v>
+      </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F19" s="9">
-        <v>44856</v>
+        <v>44867</v>
       </c>
       <c r="G19" s="9">
-        <v>44858</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+        <v>44869</v>
+      </c>
+      <c r="H19" s="9">
+        <v>44869</v>
+      </c>
+      <c r="I19" s="9">
+        <v>44870</v>
+      </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="9">
-        <v>44859</v>
+        <v>44870</v>
       </c>
       <c r="G20" s="9">
-        <v>44860</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+        <v>44871</v>
+      </c>
+      <c r="H20" s="9">
+        <v>44871</v>
+      </c>
+      <c r="I20" s="9">
+        <v>44872</v>
+      </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
+      <c r="C21" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F21" s="9">
-        <v>44861</v>
+        <v>44872</v>
       </c>
       <c r="G21" s="9">
-        <v>44862</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+        <v>44873</v>
+      </c>
+      <c r="H21" s="9">
+        <v>44876</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44877</v>
+      </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="9">
-        <v>44863</v>
+        <v>44875</v>
       </c>
       <c r="G22" s="9">
-        <v>44865</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+        <v>44878</v>
+      </c>
+      <c r="H22" s="9">
+        <v>44878</v>
+      </c>
+      <c r="I22" s="9">
+        <v>44881</v>
+      </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="9">
-        <v>44866</v>
+        <v>44879</v>
       </c>
       <c r="G23" s="9">
-        <v>44868</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+        <v>44880</v>
+      </c>
+      <c r="H23" s="9">
+        <v>44882</v>
+      </c>
+      <c r="I23" s="9">
+        <v>44883</v>
+      </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="9">
-        <v>44869</v>
+        <v>44881</v>
       </c>
       <c r="G24" s="9">
         <v>44872</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="9">
+        <v>44885</v>
+      </c>
+      <c r="I24" s="9">
+        <v>44886</v>
+      </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="9">
-        <v>44873</v>
+        <v>44882</v>
       </c>
       <c r="G25" s="9">
-        <v>44874</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+        <v>44886</v>
+      </c>
+      <c r="H25" s="9">
+        <v>44888</v>
+      </c>
+      <c r="I25" s="9">
+        <v>44892</v>
+      </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="9">
+        <v>44888</v>
+      </c>
+      <c r="G26" s="9">
+        <v>44889</v>
+      </c>
+      <c r="H26" s="9">
+        <v>44893</v>
+      </c>
+      <c r="I26" s="9">
+        <v>44893</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="9">
+        <v>44890</v>
+      </c>
+      <c r="G27" s="9">
+        <v>44894</v>
+      </c>
+      <c r="H27" s="9">
+        <v>44894</v>
+      </c>
+      <c r="I27" s="9">
+        <v>44896</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="9">
+        <v>44895</v>
+      </c>
+      <c r="G28" s="9">
+        <v>44896</v>
+      </c>
+      <c r="H28" s="9">
+        <v>44867</v>
+      </c>
+      <c r="I28" s="9">
+        <v>44867</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="9">
-        <v>44875</v>
-      </c>
-      <c r="G26" s="9">
-        <v>44876</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="9">
-        <v>44877</v>
-      </c>
-      <c r="G27" s="9">
-        <v>44879</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="9">
-        <v>44880</v>
-      </c>
-      <c r="G28" s="9">
-        <v>44882</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="12"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E29" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F29" s="9">
-        <v>44883</v>
+        <v>44896</v>
       </c>
       <c r="G29" s="9">
-        <v>44884</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+        <v>44870</v>
+      </c>
+      <c r="H29" s="9">
+        <v>44868</v>
+      </c>
+      <c r="I29" s="9">
+        <v>44872</v>
+      </c>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="9">
-        <v>44885</v>
-      </c>
-      <c r="G30" s="9">
-        <v>44885</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>7</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="9">
-        <v>44886</v>
-      </c>
-      <c r="G31" s="9">
-        <v>44887</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>8</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="9">
-        <v>44888</v>
-      </c>
-      <c r="G32" s="9">
-        <v>44891</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>9</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="9">
-        <v>44892</v>
-      </c>
-      <c r="G33" s="9">
-        <v>44898</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT_K20\Project1\Final_Project\Final-Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4951f0d6c4070b2d/Desktop/Final-Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDDCDD6-F295-4E1D-A938-005D5DD80605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AEDDCDD6-F295-4E1D-A938-005D5DD80605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7372C37B-BD02-49EF-9AC8-6778812B0282}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Thiết kế database</t>
+  </si>
+  <si>
+    <t>Làm ppt</t>
+  </si>
+  <si>
+    <t>Viết báo cáo</t>
   </si>
 </sst>
 </file>
@@ -273,23 +279,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -320,20 +340,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="dd/mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -502,9 +508,9 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Phan Hồng Sơn" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày bắt đầu dự kiến" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ngày kết thúc dự kiến" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu thực tế" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc thực tế" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ghi chú" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu thực tế" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc thực tế" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ghi chú" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -810,7 +816,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,65 +833,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1080,9 +1086,9 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1103,7 +1109,7 @@
       <c r="I14" s="9">
         <v>44844</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -1201,7 +1207,9 @@
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1382,9 @@
       <c r="D25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F25" s="9">
         <v>44882</v>
       </c>
@@ -1420,7 +1430,9 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
         <v>34</v>
@@ -1474,7 +1486,9 @@
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" s="12" t="s">
         <v>34</v>
       </c>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4951f0d6c4070b2d/Desktop/Final-Project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT_K20\Project1\Final_Project\Final-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{AEDDCDD6-F295-4E1D-A938-005D5DD80605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7372C37B-BD02-49EF-9AC8-6778812B0282}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C38004-AEB7-4780-9FA5-5E0B200DD2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Kiểm tra các chức năng của website</t>
-  </si>
-  <si>
-    <t>Viết báo cáo và powerpoint</t>
   </si>
   <si>
     <t>Trang liên hệ (tên cửa hàng, địa chỉ, số điện thoại, google maps)</t>
@@ -252,19 +249,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,16 +270,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -815,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +862,7 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -880,10 +877,10 @@
     <row r="5" spans="1:10" s="11" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -904,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>3</v>
@@ -933,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="9">
         <v>44822</v>
@@ -960,16 +957,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="9">
         <v>44825</v>
@@ -991,11 +988,11 @@
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="9">
         <v>44828</v>
@@ -1017,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="9">
@@ -1045,7 +1042,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="9">
         <v>44834</v>
@@ -1068,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="9">
@@ -1089,13 +1086,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="9">
         <v>44841</v>
@@ -1123,7 +1120,7 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="9">
         <v>44847</v>
@@ -1147,13 +1144,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="9">
         <v>44851</v>
@@ -1177,11 +1174,11 @@
         <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="9">
         <v>44863</v>
@@ -1208,10 +1205,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="9">
         <v>44865</v>
@@ -1235,7 +1232,7 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="9">
         <v>44867</v>
@@ -1255,11 +1252,11 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="9">
         <v>44870</v>
@@ -1279,13 +1276,13 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="9">
         <v>44872</v>
@@ -1308,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="9">
@@ -1329,10 +1326,10 @@
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="9">
@@ -1356,7 +1353,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="9">
@@ -1377,13 +1374,13 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="9">
         <v>44882</v>
@@ -1406,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="9">
@@ -1431,11 +1428,11 @@
         <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="9">
         <v>44890</v>
@@ -1462,7 +1459,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="9">
@@ -1484,16 +1481,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="9">
         <v>44896</v>
